--- a/biology/Botanique/Polianthes/Polianthes.xlsx
+++ b/biology/Botanique/Polianthes/Polianthes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> Polianthes  est un genre de plantes monocotylédones de la famille des Agavaceae
-ou bien plus récemment selon la classification phylogénétique APG III (2009)[1], ce genre appartient à la famille des Asparagaceae (incluant Agavaceae, Aphyllanthaceae, Hesperocallidaceae, Hyacinthaceae, Laxmanniaceae, Ruscaceae et Themidaceae).
-Carl von Linné a créé cette famille en 1753 dans son ouvrage de référence “Species plantarum”  et a renommé officiellement la Tubéreuse du nom binominal  Polianthes tuberosa selon les principes qu’il avait génialement définis[2].
+ou bien plus récemment selon la classification phylogénétique APG III (2009), ce genre appartient à la famille des Asparagaceae (incluant Agavaceae, Aphyllanthaceae, Hesperocallidaceae, Hyacinthaceae, Laxmanniaceae, Ruscaceae et Themidaceae).
+Carl von Linné a créé cette famille en 1753 dans son ouvrage de référence “Species plantarum”  et a renommé officiellement la Tubéreuse du nom binominal  Polianthes tuberosa selon les principes qu’il avait génialement définis.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon "Kew"[3]   3 septembre 2012
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon "Kew"   3 septembre 2012
 Polianthes bicolor E.Solano, Camacho &amp; García-Mend., (1998)
 Polianthes densiflora (B.L.Rob. &amp; Fernald) Shinners, (1966)
 Polianthes durangensis Rose, (1903)
@@ -566,9 +580,11 @@
           <t>Espèces aux noms obsolètes et leurs taxons de référence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon "Kew"[3]   3 septembre 2012
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon "Kew"   3 septembre 2012
 Polianthes americana Sessé &amp; Moc., (1888) =  Polianthes geminiflora var. geminiflora
 Polianthes × blissii Worsley, (1911)  Unplaced
 Polianthes brachystachys (Cav.) Shinners, (1966) =  Manfreda scabra (Ortega) McVaugh, (1989)
